--- a/archive/investors_test.xlsx
+++ b/archive/investors_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\cwb-slt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\cwb-slt\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DAC82C-F466-4654-AF65-581B3B9FFF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F6FA9C-0F52-4E4E-A9E5-A15F0DE8165C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="1005" windowWidth="22485" windowHeight="13395" xr2:uid="{B43D08C9-BC77-4BFE-A3E5-A2E3BB66DA3B}"/>
+    <workbookView xWindow="0" yWindow="1005" windowWidth="22485" windowHeight="13395" xr2:uid="{B43D08C9-BC77-4BFE-A3E5-A2E3BB66DA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Regions</t>
   </si>
   <si>
-    <t>Stage</t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Impact, Sustainability / Climate, Deeptech</t>
+  </si>
+  <si>
+    <t>StartupStage</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -490,27 +490,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
